--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3989.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3989.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.277166880011146</v>
+        <v>0.710750937461853</v>
       </c>
       <c r="B1">
-        <v>2.715563389988797</v>
+        <v>1.366769671440125</v>
       </c>
       <c r="C1">
-        <v>4.748135352080221</v>
+        <v>4.01826000213623</v>
       </c>
       <c r="D1">
-        <v>3.297346536075255</v>
+        <v>5.917943477630615</v>
       </c>
       <c r="E1">
-        <v>1.322509709829116</v>
+        <v>1.823036074638367</v>
       </c>
     </row>
   </sheetData>
